--- a/excels/DemandaReal2040.xlsx
+++ b/excels/DemandaReal2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EXT10348\Downloads\WinPython 3.12.10\WPy64-31241\PROYECTOS PYPSA\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BF9BD8-0071-4FAA-9371-F2885EE17AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9994F3-6082-4035-B787-3807A0EC402B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="686" xr2:uid="{9272D253-6492-448F-8BE3-DC0A35F3DE99}"/>
   </bookViews>
@@ -40,6 +40,30 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Batres Fernandez, Ana</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{56E9EBA5-2523-4408-ADFA-CC71098B7993}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lo que hacemos aquí es recopilar la demanda de cada hora desde el 1 de Enero de 2040 hasta el 7 de enero de 2040.
+El cálculo de estos valores se encuentra en el resto de hojas separado por días.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -88,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +246,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1037,11 +1067,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACAE043-7AEB-4F09-B110-3D979995D00F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACAE043-7AEB-4F09-B110-3D979995D00F}">
   <dimension ref="A1:B169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2572,6 +2602,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/excels/DemandaReal2040.xlsx
+++ b/excels/DemandaReal2040.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EXT10348\Downloads\WinPython 3.12.10\WPy64-31241\PROYECTOS PYPSA\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EXT10348\Downloads\WinPython 3.12.10\WPy64-31241\Borja_Miguel_ModeloPyPSA_Inicial\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9994F3-6082-4035-B787-3807A0EC402B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8C010A-12C3-4941-B8CF-EBC5FCFFB452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="686" xr2:uid="{9272D253-6492-448F-8BE3-DC0A35F3DE99}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="686" activeTab="1" xr2:uid="{9272D253-6492-448F-8BE3-DC0A35F3DE99}"/>
   </bookViews>
   <sheets>
     <sheet name="Totales" sheetId="9" r:id="rId1"/>
-    <sheet name="2025-01-01" sheetId="1" r:id="rId2"/>
-    <sheet name="2025-01-02" sheetId="7" r:id="rId3"/>
-    <sheet name="2025-01-03" sheetId="6" r:id="rId4"/>
-    <sheet name="2025-01-04" sheetId="5" r:id="rId5"/>
-    <sheet name="2025-01-05" sheetId="4" r:id="rId6"/>
-    <sheet name="2025-01-06" sheetId="3" r:id="rId7"/>
-    <sheet name="2025-01-07" sheetId="2" r:id="rId8"/>
+    <sheet name="Hoja1" sheetId="10" r:id="rId2"/>
+    <sheet name="2025-01-01" sheetId="1" r:id="rId3"/>
+    <sheet name="2025-01-02" sheetId="7" r:id="rId4"/>
+    <sheet name="2025-01-03" sheetId="6" r:id="rId5"/>
+    <sheet name="2025-01-04" sheetId="5" r:id="rId6"/>
+    <sheet name="2025-01-05" sheetId="4" r:id="rId7"/>
+    <sheet name="2025-01-06" sheetId="3" r:id="rId8"/>
+    <sheet name="2025-01-07" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2025-01-01'!$F$1:$F$365</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2025-01-01'!$F$1:$F$365</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1070,7 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACAE043-7AEB-4F09-B110-3D979995D00F}">
   <dimension ref="A1:B169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -2607,6 +2608,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E0D9B2-33AD-4031-9213-D0866BF6B3E2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8580BF4E-2629-45AF-A6FA-71FDDB350A87}">
   <dimension ref="A1:I292"/>
   <sheetViews>
@@ -8147,7 +8162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D7A84A-4193-4937-9BA8-FFA564749C31}">
   <dimension ref="A1:I292"/>
   <sheetViews>
@@ -13685,7 +13700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9C461A-FE97-44D4-9072-436245ED7B5C}">
   <dimension ref="A1:I292"/>
   <sheetViews>
@@ -19223,7 +19238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9234E4A3-66A5-415F-B9BC-6E90D648DF35}">
   <dimension ref="A1:I292"/>
   <sheetViews>
@@ -24761,7 +24776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9756117E-7641-46DA-82B4-E5C645058D41}">
   <dimension ref="A1:I292"/>
   <sheetViews>
@@ -30299,7 +30314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87D4FD6-EFE4-4484-A0CE-FA37D9BFD157}">
   <dimension ref="A1:I292"/>
   <sheetViews>
@@ -35837,7 +35852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E465D2CA-313E-412A-BBD4-EB273D73B4DA}">
   <dimension ref="A1:I292"/>
   <sheetViews>
